--- a/xlsx/country_comparison/transfer_how_positive.xlsx
+++ b/xlsx/country_comparison/transfer_how_positive.xlsx
@@ -395,13 +395,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.35672514619883</v>
+        <v>0.357743097238896</v>
       </c>
       <c r="C2" t="n">
-        <v>0.377440347071584</v>
+        <v>0.409297052154195</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.377631578947368</v>
       </c>
     </row>
     <row r="3">
@@ -409,13 +409,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.327485380116959</v>
+        <v>0.326530612244898</v>
       </c>
       <c r="C3" t="n">
-        <v>0.295010845986985</v>
+        <v>0.327664399092971</v>
       </c>
       <c r="D3" t="n">
-        <v>0.46</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="4">
@@ -423,13 +423,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.16374269005848</v>
+        <v>0.213685474189676</v>
       </c>
       <c r="C4" t="n">
-        <v>0.110629067245119</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="D4" t="n">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -437,13 +437,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.263157894736842</v>
+        <v>0.288115246098439</v>
       </c>
       <c r="C5" t="n">
-        <v>0.164859002169197</v>
+        <v>0.168934240362812</v>
       </c>
       <c r="D5" t="n">
-        <v>0.276666666666667</v>
+        <v>0.189473684210526</v>
       </c>
     </row>
     <row r="6">
@@ -451,13 +451,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.380116959064327</v>
+        <v>0.36734693877551</v>
       </c>
       <c r="C6" t="n">
-        <v>0.27765726681128</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="D6" t="n">
-        <v>0.39</v>
+        <v>0.282894736842105</v>
       </c>
     </row>
     <row r="7">
@@ -465,13 +465,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.497076023391813</v>
+        <v>0.501800720288115</v>
       </c>
       <c r="C7" t="n">
-        <v>0.427331887201735</v>
+        <v>0.426303854875283</v>
       </c>
       <c r="D7" t="n">
-        <v>0.593333333333333</v>
+        <v>0.447368421052632</v>
       </c>
     </row>
     <row r="8">
@@ -479,13 +479,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.324561403508772</v>
+        <v>0.34453781512605</v>
       </c>
       <c r="C8" t="n">
-        <v>0.227765726681128</v>
+        <v>0.229024943310658</v>
       </c>
       <c r="D8" t="n">
-        <v>0.386666666666667</v>
+        <v>0.293421052631579</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/transfer_how_positive.xlsx
+++ b/xlsx/country_comparison/transfer_how_positive.xlsx
@@ -401,7 +401,7 @@
         <v>0.409297052154195</v>
       </c>
       <c r="D2" t="n">
-        <v>0.377631578947368</v>
+        <v>0.378413524057217</v>
       </c>
     </row>
     <row r="3">
@@ -415,7 +415,7 @@
         <v>0.327664399092971</v>
       </c>
       <c r="D3" t="n">
-        <v>0.375</v>
+        <v>0.375812743823147</v>
       </c>
     </row>
     <row r="4">
@@ -429,7 +429,7 @@
         <v>0.126984126984127</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15</v>
+        <v>0.150845253576073</v>
       </c>
     </row>
     <row r="5">
@@ -443,7 +443,7 @@
         <v>0.168934240362812</v>
       </c>
       <c r="D5" t="n">
-        <v>0.189473684210526</v>
+        <v>0.192457737321196</v>
       </c>
     </row>
     <row r="6">
@@ -457,7 +457,7 @@
         <v>0.285714285714286</v>
       </c>
       <c r="D6" t="n">
-        <v>0.282894736842105</v>
+        <v>0.284785435630689</v>
       </c>
     </row>
     <row r="7">
@@ -471,7 +471,7 @@
         <v>0.426303854875283</v>
       </c>
       <c r="D7" t="n">
-        <v>0.447368421052632</v>
+        <v>0.447334200260078</v>
       </c>
     </row>
     <row r="8">
@@ -485,7 +485,7 @@
         <v>0.229024943310658</v>
       </c>
       <c r="D8" t="n">
-        <v>0.293421052631579</v>
+        <v>0.293888166449935</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/transfer_how_positive.xlsx
+++ b/xlsx/country_comparison/transfer_how_positive.xlsx
@@ -12,39 +12,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">transfer_how_agencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transfer_how_govt_conditional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transfer_how_govt_unconditional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transfer_how_local_authorities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transfer_how_ngo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transfer_how_social_protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transfer_how_cash_unconditional</t>
+    <t xml:space="preserve">Development aid agencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government, conditional on financing poverty reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government, unconditional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local authorities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local NGOs with democratic processes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target cash transfers (child allowances,
+disability &amp; elderly pensions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unconditional cash transfers to each household</t>
   </si>
 </sst>
 </file>
@@ -389,103 +411,271 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.357743097238896</v>
+        <v>0.462011611833675</v>
       </c>
       <c r="C2" t="n">
-        <v>0.409297052154195</v>
+        <v>0.432190823298684</v>
       </c>
       <c r="D2" t="n">
-        <v>0.378413524057217</v>
+        <v>0.435054109907091</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.377337733773377</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.341816459066631</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.577620436098021</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.470464559759652</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.389354640626733</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.476970173822441</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.386711643506156</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.326530612244898</v>
+        <v>0.405891557621192</v>
       </c>
       <c r="C3" t="n">
-        <v>0.327664399092971</v>
+        <v>0.452815340346781</v>
       </c>
       <c r="D3" t="n">
-        <v>0.375812743823147</v>
+        <v>0.532235229958157</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2002200220022</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.330718012216045</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.648118470230854</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.470716428233635</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.354989159148903</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.431246186887456</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.328383295967179</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.213685474189676</v>
+        <v>0.205960459118428</v>
       </c>
       <c r="C4" t="n">
-        <v>0.126984126984127</v>
+        <v>0.183855409911018</v>
       </c>
       <c r="D4" t="n">
-        <v>0.150845253576073</v>
+        <v>0.259480851500343</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.150715071507151</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.229012255168541</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.51509676686177</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.236293566602316</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.201139484113679</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.167095456842951</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.221097816500407</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.288115246098439</v>
+        <v>0.23635157848855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.168934240362812</v>
+        <v>0.254105468985508</v>
       </c>
       <c r="D5" t="n">
-        <v>0.192457737321196</v>
+        <v>0.272519983620469</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.141914191419142</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.279903488235186</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.47413964672792</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.268450675154188</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.233025342792289</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.220803382106071</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.297801656129541</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.36734693877551</v>
+        <v>0.431997288427369</v>
       </c>
       <c r="C6" t="n">
-        <v>0.285714285714286</v>
+        <v>0.325519157161715</v>
       </c>
       <c r="D6" t="n">
-        <v>0.284785435630689</v>
+        <v>0.396734079170382</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.143014301430143</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.433111258310904</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.552199619886196</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.332344108129671</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.296408454020722</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.305353513821237</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.368202972848572</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.501800720288115</v>
+        <v>0.429484931425589</v>
       </c>
       <c r="C7" t="n">
-        <v>0.426303854875283</v>
+        <v>0.517473582487124</v>
       </c>
       <c r="D7" t="n">
-        <v>0.447334200260078</v>
+        <v>0.564421158533611</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.275027502750275</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.357613954968511</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.741923581247736</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.56334287375085</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.408207808207333</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.461334516846469</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.391458811587361</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.34453781512605</v>
+        <v>0.279660184475683</v>
       </c>
       <c r="C8" t="n">
-        <v>0.229024943310658</v>
+        <v>0.29633361785998</v>
       </c>
       <c r="D8" t="n">
-        <v>0.293888166449935</v>
+        <v>0.294728548598584</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.147414741474147</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.233668518541956</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.641295140487511</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.377346915719327</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.33672011553338</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.288140425323204</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.251263425486342</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/transfer_how_positive.xlsx
+++ b/xlsx/country_comparison/transfer_how_positive.xlsx
@@ -438,34 +438,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.462011611833675</v>
+        <v>0.436986492397442</v>
       </c>
       <c r="C2" t="n">
-        <v>0.432190823298684</v>
+        <v>0.425874949929668</v>
       </c>
       <c r="D2" t="n">
-        <v>0.435054109907091</v>
+        <v>0.43338141336162</v>
       </c>
       <c r="E2" t="n">
         <v>0.377337733773377</v>
       </c>
       <c r="F2" t="n">
-        <v>0.341816459066631</v>
+        <v>0.338430592793701</v>
       </c>
       <c r="G2" t="n">
-        <v>0.577620436098021</v>
+        <v>0.580151951457269</v>
       </c>
       <c r="H2" t="n">
-        <v>0.470464559759652</v>
+        <v>0.480546579067372</v>
       </c>
       <c r="I2" t="n">
-        <v>0.389354640626733</v>
+        <v>0.439887530865734</v>
       </c>
       <c r="J2" t="n">
-        <v>0.476970173822441</v>
+        <v>0.472578296859354</v>
       </c>
       <c r="K2" t="n">
-        <v>0.386711643506156</v>
+        <v>0.370971796064872</v>
       </c>
     </row>
     <row r="3">
@@ -473,34 +473,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.405891557621192</v>
+        <v>0.373167588181193</v>
       </c>
       <c r="C3" t="n">
-        <v>0.452815340346781</v>
+        <v>0.450608174870288</v>
       </c>
       <c r="D3" t="n">
-        <v>0.532235229958157</v>
+        <v>0.530374435799158</v>
       </c>
       <c r="E3" t="n">
         <v>0.2002200220022</v>
       </c>
       <c r="F3" t="n">
-        <v>0.330718012216045</v>
+        <v>0.325243502357937</v>
       </c>
       <c r="G3" t="n">
-        <v>0.648118470230854</v>
+        <v>0.64482501733913</v>
       </c>
       <c r="H3" t="n">
-        <v>0.470716428233635</v>
+        <v>0.46238929013978</v>
       </c>
       <c r="I3" t="n">
-        <v>0.354989159148903</v>
+        <v>0.403114015189859</v>
       </c>
       <c r="J3" t="n">
-        <v>0.431246186887456</v>
+        <v>0.419901143966218</v>
       </c>
       <c r="K3" t="n">
-        <v>0.328383295967179</v>
+        <v>0.338320097249902</v>
       </c>
     </row>
     <row r="4">
@@ -508,34 +508,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.205960459118428</v>
+        <v>0.227908911513072</v>
       </c>
       <c r="C4" t="n">
-        <v>0.183855409911018</v>
+        <v>0.163685553210052</v>
       </c>
       <c r="D4" t="n">
-        <v>0.259480851500343</v>
+        <v>0.258324620726444</v>
       </c>
       <c r="E4" t="n">
         <v>0.150715071507151</v>
       </c>
       <c r="F4" t="n">
-        <v>0.229012255168541</v>
+        <v>0.225433367718139</v>
       </c>
       <c r="G4" t="n">
-        <v>0.51509676686177</v>
+        <v>0.513628420838866</v>
       </c>
       <c r="H4" t="n">
-        <v>0.236293566602316</v>
+        <v>0.240872711714526</v>
       </c>
       <c r="I4" t="n">
-        <v>0.201139484113679</v>
+        <v>0.260392609534248</v>
       </c>
       <c r="J4" t="n">
-        <v>0.167095456842951</v>
+        <v>0.164005184048242</v>
       </c>
       <c r="K4" t="n">
-        <v>0.221097816500407</v>
+        <v>0.219547475183185</v>
       </c>
     </row>
     <row r="5">
@@ -543,34 +543,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.23635157848855</v>
+        <v>0.262843952521002</v>
       </c>
       <c r="C5" t="n">
-        <v>0.254105468985508</v>
+        <v>0.248423196360323</v>
       </c>
       <c r="D5" t="n">
-        <v>0.272519983620469</v>
+        <v>0.271551382768849</v>
       </c>
       <c r="E5" t="n">
         <v>0.141914191419142</v>
       </c>
       <c r="F5" t="n">
-        <v>0.279903488235186</v>
+        <v>0.272385547906365</v>
       </c>
       <c r="G5" t="n">
-        <v>0.47413964672792</v>
+        <v>0.473127878010356</v>
       </c>
       <c r="H5" t="n">
-        <v>0.268450675154188</v>
+        <v>0.276041035138298</v>
       </c>
       <c r="I5" t="n">
-        <v>0.233025342792289</v>
+        <v>0.272114614139133</v>
       </c>
       <c r="J5" t="n">
-        <v>0.220803382106071</v>
+        <v>0.214793491559444</v>
       </c>
       <c r="K5" t="n">
-        <v>0.297801656129541</v>
+        <v>0.284638651145961</v>
       </c>
     </row>
     <row r="6">
@@ -578,34 +578,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.431997288427369</v>
+        <v>0.407410049801691</v>
       </c>
       <c r="C6" t="n">
-        <v>0.325519157161715</v>
+        <v>0.301653604055742</v>
       </c>
       <c r="D6" t="n">
-        <v>0.396734079170382</v>
+        <v>0.395443733769818</v>
       </c>
       <c r="E6" t="n">
         <v>0.143014301430143</v>
       </c>
       <c r="F6" t="n">
-        <v>0.433111258310904</v>
+        <v>0.429081882794425</v>
       </c>
       <c r="G6" t="n">
-        <v>0.552199619886196</v>
+        <v>0.550614853420852</v>
       </c>
       <c r="H6" t="n">
-        <v>0.332344108129671</v>
+        <v>0.338128403840853</v>
       </c>
       <c r="I6" t="n">
-        <v>0.296408454020722</v>
+        <v>0.312524500425472</v>
       </c>
       <c r="J6" t="n">
-        <v>0.305353513821237</v>
+        <v>0.297035066255949</v>
       </c>
       <c r="K6" t="n">
-        <v>0.368202972848572</v>
+        <v>0.356313773265554</v>
       </c>
     </row>
     <row r="7">
@@ -613,34 +613,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.429484931425589</v>
+        <v>0.454085269036407</v>
       </c>
       <c r="C7" t="n">
-        <v>0.517473582487124</v>
+        <v>0.517429823663232</v>
       </c>
       <c r="D7" t="n">
-        <v>0.564421158533611</v>
+        <v>0.562336607654611</v>
       </c>
       <c r="E7" t="n">
         <v>0.275027502750275</v>
       </c>
       <c r="F7" t="n">
-        <v>0.357613954968511</v>
+        <v>0.343343508001994</v>
       </c>
       <c r="G7" t="n">
-        <v>0.741923581247736</v>
+        <v>0.739028571722296</v>
       </c>
       <c r="H7" t="n">
-        <v>0.56334287375085</v>
+        <v>0.548056572538082</v>
       </c>
       <c r="I7" t="n">
-        <v>0.408207808207333</v>
+        <v>0.459276198248104</v>
       </c>
       <c r="J7" t="n">
-        <v>0.461334516846469</v>
+        <v>0.450956979966905</v>
       </c>
       <c r="K7" t="n">
-        <v>0.391458811587361</v>
+        <v>0.393501570916559</v>
       </c>
     </row>
     <row r="8">
@@ -648,34 +648,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.279660184475683</v>
+        <v>0.308052064208356</v>
       </c>
       <c r="C8" t="n">
-        <v>0.29633361785998</v>
+        <v>0.280023891572961</v>
       </c>
       <c r="D8" t="n">
-        <v>0.294728548598584</v>
+        <v>0.293316511432611</v>
       </c>
       <c r="E8" t="n">
         <v>0.147414741474147</v>
       </c>
       <c r="F8" t="n">
-        <v>0.233668518541956</v>
+        <v>0.222983571050941</v>
       </c>
       <c r="G8" t="n">
-        <v>0.641295140487511</v>
+        <v>0.63965999927638</v>
       </c>
       <c r="H8" t="n">
-        <v>0.377346915719327</v>
+        <v>0.372670640784363</v>
       </c>
       <c r="I8" t="n">
-        <v>0.33672011553338</v>
+        <v>0.409109056158263</v>
       </c>
       <c r="J8" t="n">
-        <v>0.288140425323204</v>
+        <v>0.279386047394899</v>
       </c>
       <c r="K8" t="n">
-        <v>0.251263425486342</v>
+        <v>0.264097969706751</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/transfer_how_positive.xlsx
+++ b/xlsx/country_comparison/transfer_how_positive.xlsx
@@ -438,34 +438,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.436986492397442</v>
+        <v>0.400614759925619</v>
       </c>
       <c r="C2" t="n">
-        <v>0.425874949929668</v>
+        <v>0.482730344585041</v>
       </c>
       <c r="D2" t="n">
-        <v>0.43338141336162</v>
+        <v>0.402432902827681</v>
       </c>
       <c r="E2" t="n">
-        <v>0.377337733773377</v>
+        <v>0.357655425568438</v>
       </c>
       <c r="F2" t="n">
-        <v>0.338430592793701</v>
+        <v>0.337074742991466</v>
       </c>
       <c r="G2" t="n">
-        <v>0.580151951457269</v>
+        <v>0.56191100677903</v>
       </c>
       <c r="H2" t="n">
-        <v>0.480546579067372</v>
+        <v>0.454092899747608</v>
       </c>
       <c r="I2" t="n">
-        <v>0.439887530865734</v>
+        <v>0.475137772034893</v>
       </c>
       <c r="J2" t="n">
-        <v>0.472578296859354</v>
+        <v>0.438170994498318</v>
       </c>
       <c r="K2" t="n">
-        <v>0.370971796064872</v>
+        <v>0.373955833863498</v>
       </c>
     </row>
     <row r="3">
@@ -473,34 +473,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.373167588181193</v>
+        <v>0.374118851366153</v>
       </c>
       <c r="C3" t="n">
-        <v>0.450608174870288</v>
+        <v>0.444781676323852</v>
       </c>
       <c r="D3" t="n">
-        <v>0.530374435799158</v>
+        <v>0.467210984191851</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2002200220022</v>
+        <v>0.273139899213229</v>
       </c>
       <c r="F3" t="n">
-        <v>0.325243502357937</v>
+        <v>0.349960217334714</v>
       </c>
       <c r="G3" t="n">
-        <v>0.64482501733913</v>
+        <v>0.619577572949121</v>
       </c>
       <c r="H3" t="n">
-        <v>0.46238929013978</v>
+        <v>0.4362763249205</v>
       </c>
       <c r="I3" t="n">
-        <v>0.403114015189859</v>
+        <v>0.42617890109975</v>
       </c>
       <c r="J3" t="n">
-        <v>0.419901143966218</v>
+        <v>0.405992167477128</v>
       </c>
       <c r="K3" t="n">
-        <v>0.338320097249902</v>
+        <v>0.343888932265833</v>
       </c>
     </row>
     <row r="4">
@@ -508,34 +508,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.227908911513072</v>
+        <v>0.215938013663299</v>
       </c>
       <c r="C4" t="n">
-        <v>0.163685553210052</v>
+        <v>0.136664195234999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.258324620726444</v>
+        <v>0.182200669227983</v>
       </c>
       <c r="E4" t="n">
-        <v>0.150715071507151</v>
+        <v>0.14767977418162</v>
       </c>
       <c r="F4" t="n">
-        <v>0.225433367718139</v>
+        <v>0.231121819442484</v>
       </c>
       <c r="G4" t="n">
-        <v>0.513628420838866</v>
+        <v>0.503922606553904</v>
       </c>
       <c r="H4" t="n">
-        <v>0.240872711714526</v>
+        <v>0.218759226671453</v>
       </c>
       <c r="I4" t="n">
-        <v>0.260392609534248</v>
+        <v>0.266584750261972</v>
       </c>
       <c r="J4" t="n">
-        <v>0.164005184048242</v>
+        <v>0.177963417412329</v>
       </c>
       <c r="K4" t="n">
-        <v>0.219547475183185</v>
+        <v>0.19146424060814</v>
       </c>
     </row>
     <row r="5">
@@ -543,34 +543,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.262843952521002</v>
+        <v>0.263995800684632</v>
       </c>
       <c r="C5" t="n">
-        <v>0.248423196360323</v>
+        <v>0.213605570180736</v>
       </c>
       <c r="D5" t="n">
-        <v>0.271551382768849</v>
+        <v>0.215838792800448</v>
       </c>
       <c r="E5" t="n">
-        <v>0.141914191419142</v>
+        <v>0.185207744968025</v>
       </c>
       <c r="F5" t="n">
-        <v>0.272385547906365</v>
+        <v>0.32764683494271</v>
       </c>
       <c r="G5" t="n">
-        <v>0.473127878010356</v>
+        <v>0.464462780860172</v>
       </c>
       <c r="H5" t="n">
-        <v>0.276041035138298</v>
+        <v>0.226424268808549</v>
       </c>
       <c r="I5" t="n">
-        <v>0.272114614139133</v>
+        <v>0.261271605983001</v>
       </c>
       <c r="J5" t="n">
-        <v>0.214793491559444</v>
+        <v>0.208844545687507</v>
       </c>
       <c r="K5" t="n">
-        <v>0.284638651145961</v>
+        <v>0.198728731714694</v>
       </c>
     </row>
     <row r="6">
@@ -578,34 +578,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.407410049801691</v>
+        <v>0.378326128661341</v>
       </c>
       <c r="C6" t="n">
-        <v>0.301653604055742</v>
+        <v>0.324180239350889</v>
       </c>
       <c r="D6" t="n">
-        <v>0.395443733769818</v>
+        <v>0.32924697073063</v>
       </c>
       <c r="E6" t="n">
-        <v>0.143014301430143</v>
+        <v>0.22399786014328</v>
       </c>
       <c r="F6" t="n">
-        <v>0.429081882794425</v>
+        <v>0.337173916868567</v>
       </c>
       <c r="G6" t="n">
-        <v>0.550614853420852</v>
+        <v>0.533022389981981</v>
       </c>
       <c r="H6" t="n">
-        <v>0.338128403840853</v>
+        <v>0.376612477297003</v>
       </c>
       <c r="I6" t="n">
-        <v>0.312524500425472</v>
+        <v>0.316597353294248</v>
       </c>
       <c r="J6" t="n">
-        <v>0.297035066255949</v>
+        <v>0.290373382570239</v>
       </c>
       <c r="K6" t="n">
-        <v>0.356313773265554</v>
+        <v>0.281127183191422</v>
       </c>
     </row>
     <row r="7">
@@ -613,34 +613,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.454085269036407</v>
+        <v>0.446061146082486</v>
       </c>
       <c r="C7" t="n">
-        <v>0.517429823663232</v>
+        <v>0.4834173110544</v>
       </c>
       <c r="D7" t="n">
-        <v>0.562336607654611</v>
+        <v>0.559896552039791</v>
       </c>
       <c r="E7" t="n">
-        <v>0.275027502750275</v>
+        <v>0.366639058848494</v>
       </c>
       <c r="F7" t="n">
-        <v>0.343343508001994</v>
+        <v>0.441299890735408</v>
       </c>
       <c r="G7" t="n">
-        <v>0.739028571722296</v>
+        <v>0.724216584617316</v>
       </c>
       <c r="H7" t="n">
-        <v>0.548056572538082</v>
+        <v>0.590737750464843</v>
       </c>
       <c r="I7" t="n">
-        <v>0.459276198248104</v>
+        <v>0.464618488238125</v>
       </c>
       <c r="J7" t="n">
-        <v>0.450956979966905</v>
+        <v>0.428114209876336</v>
       </c>
       <c r="K7" t="n">
-        <v>0.393501570916559</v>
+        <v>0.442978849957798</v>
       </c>
     </row>
     <row r="8">
@@ -648,34 +648,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.308052064208356</v>
+        <v>0.312488326718299</v>
       </c>
       <c r="C8" t="n">
-        <v>0.280023891572961</v>
+        <v>0.254016581024562</v>
       </c>
       <c r="D8" t="n">
-        <v>0.293316511432611</v>
+        <v>0.321793984873744</v>
       </c>
       <c r="E8" t="n">
-        <v>0.147414741474147</v>
+        <v>0.249829515860387</v>
       </c>
       <c r="F8" t="n">
-        <v>0.222983571050941</v>
+        <v>0.306433717943073</v>
       </c>
       <c r="G8" t="n">
-        <v>0.63965999927638</v>
+        <v>0.632280949040789</v>
       </c>
       <c r="H8" t="n">
-        <v>0.372670640784363</v>
+        <v>0.361614238256748</v>
       </c>
       <c r="I8" t="n">
-        <v>0.409109056158263</v>
+        <v>0.359598642913082</v>
       </c>
       <c r="J8" t="n">
-        <v>0.279386047394899</v>
+        <v>0.274894067025984</v>
       </c>
       <c r="K8" t="n">
-        <v>0.264097969706751</v>
+        <v>0.300725760897079</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/transfer_how_positive.xlsx
+++ b/xlsx/country_comparison/transfer_how_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,47 +32,47 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development aid agencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government, conditional on financing poverty reduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government, unconditional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local authorities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local NGOs with democratic processes</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Target cash transfers (child allowances,
 disability &amp; elderly pensions)</t>
   </si>
   <si>
+    <t xml:space="preserve">Development aid agencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government, conditional on financing poverty reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local NGOs with democratic processes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unconditional cash transfers to each household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local authorities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government, unconditional</t>
   </si>
 </sst>
 </file>
@@ -432,250 +438,298 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.400614759925619</v>
+        <v>0.461122759816828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.482730344585041</v>
+        <v>0.474821398292812</v>
       </c>
       <c r="D2" t="n">
-        <v>0.402432902827681</v>
+        <v>0.436791049872213</v>
       </c>
       <c r="E2" t="n">
-        <v>0.357655425568438</v>
+        <v>0.451617597419393</v>
       </c>
       <c r="F2" t="n">
-        <v>0.337074742991466</v>
+        <v>0.564931686835532</v>
       </c>
       <c r="G2" t="n">
-        <v>0.56191100677903</v>
+        <v>0.448592195939526</v>
       </c>
       <c r="H2" t="n">
-        <v>0.454092899747608</v>
+        <v>0.547488781055666</v>
       </c>
       <c r="I2" t="n">
-        <v>0.475137772034893</v>
+        <v>0.424224701155445</v>
       </c>
       <c r="J2" t="n">
-        <v>0.438170994498318</v>
+        <v>0.454298766454156</v>
       </c>
       <c r="K2" t="n">
-        <v>0.373955833863498</v>
+        <v>0.363331117589475</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.719648650618285</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.461344890841953</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.374118851366153</v>
+        <v>0.399876133351768</v>
       </c>
       <c r="C3" t="n">
-        <v>0.444781676323852</v>
+        <v>0.42181175467169</v>
       </c>
       <c r="D3" t="n">
-        <v>0.467210984191851</v>
+        <v>0.409358703468879</v>
       </c>
       <c r="E3" t="n">
-        <v>0.273139899213229</v>
+        <v>0.492261936598851</v>
       </c>
       <c r="F3" t="n">
-        <v>0.349960217334714</v>
+        <v>0.385606641518216</v>
       </c>
       <c r="G3" t="n">
-        <v>0.619577572949121</v>
+        <v>0.331099848541801</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4362763249205</v>
+        <v>0.452550322585475</v>
       </c>
       <c r="I3" t="n">
-        <v>0.42617890109975</v>
+        <v>0.405549879991631</v>
       </c>
       <c r="J3" t="n">
-        <v>0.405992167477128</v>
+        <v>0.43900030644587</v>
       </c>
       <c r="K3" t="n">
-        <v>0.343888932265833</v>
+        <v>0.356135062458578</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.556540224858046</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.378305598123902</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.215938013663299</v>
+        <v>0.376827709347012</v>
       </c>
       <c r="C4" t="n">
-        <v>0.136664195234999</v>
+        <v>0.405806138644301</v>
       </c>
       <c r="D4" t="n">
-        <v>0.182200669227983</v>
+        <v>0.375528545499969</v>
       </c>
       <c r="E4" t="n">
-        <v>0.14767977418162</v>
+        <v>0.449388424512845</v>
       </c>
       <c r="F4" t="n">
-        <v>0.231121819442484</v>
+        <v>0.47386475825564</v>
       </c>
       <c r="G4" t="n">
-        <v>0.503922606553904</v>
+        <v>0.331455721353329</v>
       </c>
       <c r="H4" t="n">
-        <v>0.218759226671453</v>
+        <v>0.414081107610968</v>
       </c>
       <c r="I4" t="n">
-        <v>0.266584750261972</v>
+        <v>0.359544095335798</v>
       </c>
       <c r="J4" t="n">
-        <v>0.177963417412329</v>
+        <v>0.372567536963043</v>
       </c>
       <c r="K4" t="n">
-        <v>0.19146424060814</v>
+        <v>0.269551215601717</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.618664271713318</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.364838967233983</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.263995800684632</v>
+        <v>0.312890789649626</v>
       </c>
       <c r="C5" t="n">
-        <v>0.213605570180736</v>
+        <v>0.336954739088885</v>
       </c>
       <c r="D5" t="n">
-        <v>0.215838792800448</v>
+        <v>0.388990926033114</v>
       </c>
       <c r="E5" t="n">
-        <v>0.185207744968025</v>
+        <v>0.33229694225705</v>
       </c>
       <c r="F5" t="n">
-        <v>0.32764683494271</v>
+        <v>0.337679156304772</v>
       </c>
       <c r="G5" t="n">
-        <v>0.464462780860172</v>
+        <v>0.328632091700783</v>
       </c>
       <c r="H5" t="n">
-        <v>0.226424268808549</v>
+        <v>0.35850637894832</v>
       </c>
       <c r="I5" t="n">
-        <v>0.261271605983001</v>
+        <v>0.27859550555493</v>
       </c>
       <c r="J5" t="n">
-        <v>0.208844545687507</v>
+        <v>0.339557379642801</v>
       </c>
       <c r="K5" t="n">
-        <v>0.198728731714694</v>
+        <v>0.220290230091564</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.522720253391008</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.303531376328281</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.378326128661341</v>
+        <v>0.306607727755077</v>
       </c>
       <c r="C6" t="n">
-        <v>0.324180239350889</v>
+        <v>0.294125071393658</v>
       </c>
       <c r="D6" t="n">
-        <v>0.32924697073063</v>
+        <v>0.31722423712696</v>
       </c>
       <c r="E6" t="n">
-        <v>0.22399786014328</v>
+        <v>0.252288580397362</v>
       </c>
       <c r="F6" t="n">
-        <v>0.337173916868567</v>
+        <v>0.304131268413888</v>
       </c>
       <c r="G6" t="n">
-        <v>0.533022389981981</v>
+        <v>0.296961457967713</v>
       </c>
       <c r="H6" t="n">
-        <v>0.376612477297003</v>
+        <v>0.345520279960357</v>
       </c>
       <c r="I6" t="n">
-        <v>0.316597353294248</v>
+        <v>0.268874040785868</v>
       </c>
       <c r="J6" t="n">
-        <v>0.290373382570239</v>
+        <v>0.344949354885645</v>
       </c>
       <c r="K6" t="n">
-        <v>0.281127183191422</v>
+        <v>0.250832033475068</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.619854526935366</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.31524580769132</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.446061146082486</v>
+        <v>0.22344241888516</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4834173110544</v>
+        <v>0.229244872069507</v>
       </c>
       <c r="D7" t="n">
-        <v>0.559896552039791</v>
+        <v>0.250438043703413</v>
       </c>
       <c r="E7" t="n">
-        <v>0.366639058848494</v>
+        <v>0.212726070579918</v>
       </c>
       <c r="F7" t="n">
-        <v>0.441299890735408</v>
+        <v>0.215630010110886</v>
       </c>
       <c r="G7" t="n">
-        <v>0.724216584617316</v>
+        <v>0.31121386809334</v>
       </c>
       <c r="H7" t="n">
-        <v>0.590737750464843</v>
+        <v>0.229552600718198</v>
       </c>
       <c r="I7" t="n">
-        <v>0.464618488238125</v>
+        <v>0.197894630077398</v>
       </c>
       <c r="J7" t="n">
-        <v>0.428114209876336</v>
+        <v>0.1969447332226</v>
       </c>
       <c r="K7" t="n">
-        <v>0.442978849957798</v>
+        <v>0.18336862577363</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.463061284042077</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.211502577906224</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.312488326718299</v>
+        <v>0.194501385695228</v>
       </c>
       <c r="C8" t="n">
-        <v>0.254016581024562</v>
+        <v>0.18255682211312</v>
       </c>
       <c r="D8" t="n">
-        <v>0.321793984873744</v>
+        <v>0.202012002260522</v>
       </c>
       <c r="E8" t="n">
-        <v>0.249829515860387</v>
+        <v>0.140328953076705</v>
       </c>
       <c r="F8" t="n">
-        <v>0.306433717943073</v>
+        <v>0.184094396766815</v>
       </c>
       <c r="G8" t="n">
-        <v>0.632280949040789</v>
+        <v>0.226567405880753</v>
       </c>
       <c r="H8" t="n">
-        <v>0.361614238256748</v>
+        <v>0.219175114796683</v>
       </c>
       <c r="I8" t="n">
-        <v>0.359598642913082</v>
+        <v>0.166198930510199</v>
       </c>
       <c r="J8" t="n">
-        <v>0.274894067025984</v>
+        <v>0.158241566629351</v>
       </c>
       <c r="K8" t="n">
-        <v>0.300725760897079</v>
+        <v>0.144717616333433</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.501762286933807</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.20068264988003</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/transfer_how_positive.xlsx
+++ b/xlsx/country_comparison/transfer_how_positive.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Target cash transfers (child allowances,
+    <t xml:space="preserve">Targeted cash transfers (child allowances,
 disability &amp; elderly pensions)</t>
   </si>
   <si>
@@ -450,40 +450,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.461122759816828</v>
+        <v>0.459356959140038</v>
       </c>
       <c r="C2" t="n">
-        <v>0.474821398292812</v>
+        <v>0.475264131061015</v>
       </c>
       <c r="D2" t="n">
         <v>0.436791049872213</v>
       </c>
       <c r="E2" t="n">
-        <v>0.451617597419393</v>
+        <v>0.447852654780126</v>
       </c>
       <c r="F2" t="n">
-        <v>0.564931686835532</v>
+        <v>0.564734420139515</v>
       </c>
       <c r="G2" t="n">
         <v>0.448592195939526</v>
       </c>
       <c r="H2" t="n">
-        <v>0.547488781055666</v>
+        <v>0.545371359248609</v>
       </c>
       <c r="I2" t="n">
-        <v>0.424224701155445</v>
+        <v>0.432552391691031</v>
       </c>
       <c r="J2" t="n">
-        <v>0.454298766454156</v>
+        <v>0.459776306872674</v>
       </c>
       <c r="K2" t="n">
         <v>0.363331117589475</v>
       </c>
       <c r="L2" t="n">
-        <v>0.719648650618285</v>
+        <v>0.725062981833316</v>
       </c>
       <c r="M2" t="n">
-        <v>0.461344890841953</v>
+        <v>0.455724730840838</v>
       </c>
     </row>
     <row r="3">
@@ -491,40 +491,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.399876133351768</v>
+        <v>0.394721762517495</v>
       </c>
       <c r="C3" t="n">
-        <v>0.42181175467169</v>
+        <v>0.420241574934249</v>
       </c>
       <c r="D3" t="n">
         <v>0.409358703468879</v>
       </c>
       <c r="E3" t="n">
-        <v>0.492261936598851</v>
+        <v>0.484970287713118</v>
       </c>
       <c r="F3" t="n">
-        <v>0.385606641518216</v>
+        <v>0.386400447510818</v>
       </c>
       <c r="G3" t="n">
         <v>0.331099848541801</v>
       </c>
       <c r="H3" t="n">
-        <v>0.452550322585475</v>
+        <v>0.439471472353002</v>
       </c>
       <c r="I3" t="n">
-        <v>0.405549879991631</v>
+        <v>0.414905791316675</v>
       </c>
       <c r="J3" t="n">
-        <v>0.43900030644587</v>
+        <v>0.43891398940488</v>
       </c>
       <c r="K3" t="n">
         <v>0.356135062458578</v>
       </c>
       <c r="L3" t="n">
-        <v>0.556540224858046</v>
+        <v>0.562840584733899</v>
       </c>
       <c r="M3" t="n">
-        <v>0.378305598123902</v>
+        <v>0.366007634081607</v>
       </c>
     </row>
     <row r="4">
@@ -532,40 +532,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.376827709347012</v>
+        <v>0.373447625855579</v>
       </c>
       <c r="C4" t="n">
-        <v>0.405806138644301</v>
+        <v>0.405064495310657</v>
       </c>
       <c r="D4" t="n">
         <v>0.375528545499969</v>
       </c>
       <c r="E4" t="n">
-        <v>0.449388424512845</v>
+        <v>0.458493878356051</v>
       </c>
       <c r="F4" t="n">
-        <v>0.47386475825564</v>
+        <v>0.473642772236649</v>
       </c>
       <c r="G4" t="n">
         <v>0.331455721353329</v>
       </c>
       <c r="H4" t="n">
-        <v>0.414081107610968</v>
+        <v>0.406504228308267</v>
       </c>
       <c r="I4" t="n">
-        <v>0.359544095335798</v>
+        <v>0.349678560824258</v>
       </c>
       <c r="J4" t="n">
-        <v>0.372567536963043</v>
+        <v>0.371160001643183</v>
       </c>
       <c r="K4" t="n">
         <v>0.269551215601717</v>
       </c>
       <c r="L4" t="n">
-        <v>0.618664271713318</v>
+        <v>0.620459327388081</v>
       </c>
       <c r="M4" t="n">
-        <v>0.364838967233983</v>
+        <v>0.356652083004256</v>
       </c>
     </row>
     <row r="5">
@@ -573,40 +573,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.312890789649626</v>
+        <v>0.305588571454114</v>
       </c>
       <c r="C5" t="n">
-        <v>0.336954739088885</v>
+        <v>0.333978606500881</v>
       </c>
       <c r="D5" t="n">
         <v>0.388990926033114</v>
       </c>
       <c r="E5" t="n">
-        <v>0.33229694225705</v>
+        <v>0.336450933995343</v>
       </c>
       <c r="F5" t="n">
-        <v>0.337679156304772</v>
+        <v>0.336141351163505</v>
       </c>
       <c r="G5" t="n">
         <v>0.328632091700783</v>
       </c>
       <c r="H5" t="n">
-        <v>0.35850637894832</v>
+        <v>0.334181330642951</v>
       </c>
       <c r="I5" t="n">
-        <v>0.27859550555493</v>
+        <v>0.276079737947577</v>
       </c>
       <c r="J5" t="n">
-        <v>0.339557379642801</v>
+        <v>0.337322757549618</v>
       </c>
       <c r="K5" t="n">
         <v>0.220290230091564</v>
       </c>
       <c r="L5" t="n">
-        <v>0.522720253391008</v>
+        <v>0.527942355400726</v>
       </c>
       <c r="M5" t="n">
-        <v>0.303531376328281</v>
+        <v>0.287294080258605</v>
       </c>
     </row>
     <row r="6">
@@ -614,40 +614,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.306607727755077</v>
+        <v>0.305416076707929</v>
       </c>
       <c r="C6" t="n">
-        <v>0.294125071393658</v>
+        <v>0.292889533655045</v>
       </c>
       <c r="D6" t="n">
         <v>0.31722423712696</v>
       </c>
       <c r="E6" t="n">
-        <v>0.252288580397362</v>
+        <v>0.253646457929071</v>
       </c>
       <c r="F6" t="n">
-        <v>0.304131268413888</v>
+        <v>0.308100604976968</v>
       </c>
       <c r="G6" t="n">
         <v>0.296961457967713</v>
       </c>
       <c r="H6" t="n">
-        <v>0.345520279960357</v>
+        <v>0.337614956893798</v>
       </c>
       <c r="I6" t="n">
-        <v>0.268874040785868</v>
+        <v>0.262208827908839</v>
       </c>
       <c r="J6" t="n">
-        <v>0.344949354885645</v>
+        <v>0.345738848861146</v>
       </c>
       <c r="K6" t="n">
         <v>0.250832033475068</v>
       </c>
       <c r="L6" t="n">
-        <v>0.619854526935366</v>
+        <v>0.620317782876404</v>
       </c>
       <c r="M6" t="n">
-        <v>0.31524580769132</v>
+        <v>0.313486302704752</v>
       </c>
     </row>
     <row r="7">
@@ -655,40 +655,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.22344241888516</v>
+        <v>0.224378297133374</v>
       </c>
       <c r="C7" t="n">
-        <v>0.229244872069507</v>
+        <v>0.223990549376561</v>
       </c>
       <c r="D7" t="n">
         <v>0.250438043703413</v>
       </c>
       <c r="E7" t="n">
-        <v>0.212726070579918</v>
+        <v>0.208037739193942</v>
       </c>
       <c r="F7" t="n">
-        <v>0.215630010110886</v>
+        <v>0.214652686640197</v>
       </c>
       <c r="G7" t="n">
         <v>0.31121386809334</v>
       </c>
       <c r="H7" t="n">
-        <v>0.229552600718198</v>
+        <v>0.220832262974053</v>
       </c>
       <c r="I7" t="n">
-        <v>0.197894630077398</v>
+        <v>0.182348018042198</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1969447332226</v>
+        <v>0.190486731606771</v>
       </c>
       <c r="K7" t="n">
         <v>0.18336862577363</v>
       </c>
       <c r="L7" t="n">
-        <v>0.463061284042077</v>
+        <v>0.463858331907562</v>
       </c>
       <c r="M7" t="n">
-        <v>0.211502577906224</v>
+        <v>0.219886612938875</v>
       </c>
     </row>
     <row r="8">
@@ -696,40 +696,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.194501385695228</v>
+        <v>0.185682952062025</v>
       </c>
       <c r="C8" t="n">
-        <v>0.18255682211312</v>
+        <v>0.178306549596314</v>
       </c>
       <c r="D8" t="n">
         <v>0.202012002260522</v>
       </c>
       <c r="E8" t="n">
-        <v>0.140328953076705</v>
+        <v>0.141692775152179</v>
       </c>
       <c r="F8" t="n">
-        <v>0.184094396766815</v>
+        <v>0.181505789692763</v>
       </c>
       <c r="G8" t="n">
         <v>0.226567405880753</v>
       </c>
       <c r="H8" t="n">
-        <v>0.219175114796683</v>
+        <v>0.202734356100725</v>
       </c>
       <c r="I8" t="n">
-        <v>0.166198930510199</v>
+        <v>0.15555783591152</v>
       </c>
       <c r="J8" t="n">
-        <v>0.158241566629351</v>
+        <v>0.153339440068281</v>
       </c>
       <c r="K8" t="n">
         <v>0.144717616333433</v>
       </c>
       <c r="L8" t="n">
-        <v>0.501762286933807</v>
+        <v>0.502654886407258</v>
       </c>
       <c r="M8" t="n">
-        <v>0.20068264988003</v>
+        <v>0.182301345970429</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/transfer_how_positive.xlsx
+++ b/xlsx/country_comparison/transfer_how_positive.xlsx
@@ -450,40 +450,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.459356959140038</v>
+        <v>0.458860962999883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.475264131061015</v>
+        <v>0.479230771350433</v>
       </c>
       <c r="D2" t="n">
-        <v>0.436791049872213</v>
+        <v>0.431575405918767</v>
       </c>
       <c r="E2" t="n">
-        <v>0.447852654780126</v>
+        <v>0.463015899386007</v>
       </c>
       <c r="F2" t="n">
-        <v>0.564734420139515</v>
+        <v>0.566337487383209</v>
       </c>
       <c r="G2" t="n">
-        <v>0.448592195939526</v>
+        <v>0.450855824495203</v>
       </c>
       <c r="H2" t="n">
-        <v>0.545371359248609</v>
+        <v>0.544682771468787</v>
       </c>
       <c r="I2" t="n">
-        <v>0.432552391691031</v>
+        <v>0.437672734277872</v>
       </c>
       <c r="J2" t="n">
-        <v>0.459776306872674</v>
+        <v>0.466377285299069</v>
       </c>
       <c r="K2" t="n">
-        <v>0.363331117589475</v>
+        <v>0.360714365044952</v>
       </c>
       <c r="L2" t="n">
-        <v>0.725062981833316</v>
+        <v>0.730281008556318</v>
       </c>
       <c r="M2" t="n">
-        <v>0.455724730840838</v>
+        <v>0.450469509245025</v>
       </c>
     </row>
     <row r="3">
@@ -491,40 +491,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.394721762517495</v>
+        <v>0.3952973377431</v>
       </c>
       <c r="C3" t="n">
-        <v>0.420241574934249</v>
+        <v>0.421051763072799</v>
       </c>
       <c r="D3" t="n">
-        <v>0.409358703468879</v>
+        <v>0.417861823154699</v>
       </c>
       <c r="E3" t="n">
-        <v>0.484970287713118</v>
+        <v>0.4725417045466</v>
       </c>
       <c r="F3" t="n">
-        <v>0.386400447510818</v>
+        <v>0.387630642427707</v>
       </c>
       <c r="G3" t="n">
-        <v>0.331099848541801</v>
+        <v>0.31997763274359</v>
       </c>
       <c r="H3" t="n">
-        <v>0.439471472353002</v>
+        <v>0.442914705661238</v>
       </c>
       <c r="I3" t="n">
-        <v>0.414905791316675</v>
+        <v>0.430096200341075</v>
       </c>
       <c r="J3" t="n">
-        <v>0.43891398940488</v>
+        <v>0.435665506975429</v>
       </c>
       <c r="K3" t="n">
-        <v>0.356135062458578</v>
+        <v>0.357081562396814</v>
       </c>
       <c r="L3" t="n">
-        <v>0.562840584733899</v>
+        <v>0.565757188288464</v>
       </c>
       <c r="M3" t="n">
-        <v>0.366007634081607</v>
+        <v>0.365961692108797</v>
       </c>
     </row>
     <row r="4">
@@ -532,40 +532,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.373447625855579</v>
+        <v>0.372542591621191</v>
       </c>
       <c r="C4" t="n">
-        <v>0.405064495310657</v>
+        <v>0.404670801216995</v>
       </c>
       <c r="D4" t="n">
-        <v>0.375528545499969</v>
+        <v>0.389116018193518</v>
       </c>
       <c r="E4" t="n">
-        <v>0.458493878356051</v>
+        <v>0.429596349383028</v>
       </c>
       <c r="F4" t="n">
-        <v>0.473642772236649</v>
+        <v>0.476691874466227</v>
       </c>
       <c r="G4" t="n">
-        <v>0.331455721353329</v>
+        <v>0.331301497476304</v>
       </c>
       <c r="H4" t="n">
-        <v>0.406504228308267</v>
+        <v>0.4113012027027</v>
       </c>
       <c r="I4" t="n">
-        <v>0.349678560824258</v>
+        <v>0.367167923290684</v>
       </c>
       <c r="J4" t="n">
-        <v>0.371160001643183</v>
+        <v>0.351266706374992</v>
       </c>
       <c r="K4" t="n">
-        <v>0.269551215601717</v>
+        <v>0.268511778526444</v>
       </c>
       <c r="L4" t="n">
-        <v>0.620459327388081</v>
+        <v>0.622843204081969</v>
       </c>
       <c r="M4" t="n">
-        <v>0.356652083004256</v>
+        <v>0.354925915385496</v>
       </c>
     </row>
     <row r="5">
@@ -573,40 +573,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.305588571454114</v>
+        <v>0.307610619545865</v>
       </c>
       <c r="C5" t="n">
-        <v>0.333978606500881</v>
+        <v>0.334742283222798</v>
       </c>
       <c r="D5" t="n">
-        <v>0.388990926033114</v>
+        <v>0.388299827974413</v>
       </c>
       <c r="E5" t="n">
-        <v>0.336450933995343</v>
+        <v>0.331664531280709</v>
       </c>
       <c r="F5" t="n">
-        <v>0.336141351163505</v>
+        <v>0.337325131092242</v>
       </c>
       <c r="G5" t="n">
-        <v>0.328632091700783</v>
+        <v>0.33204520698653</v>
       </c>
       <c r="H5" t="n">
-        <v>0.334181330642951</v>
+        <v>0.328089348289805</v>
       </c>
       <c r="I5" t="n">
-        <v>0.276079737947577</v>
+        <v>0.290366066135486</v>
       </c>
       <c r="J5" t="n">
-        <v>0.337322757549618</v>
+        <v>0.324313472765042</v>
       </c>
       <c r="K5" t="n">
-        <v>0.220290230091564</v>
+        <v>0.22112426694156</v>
       </c>
       <c r="L5" t="n">
-        <v>0.527942355400726</v>
+        <v>0.530104176744778</v>
       </c>
       <c r="M5" t="n">
-        <v>0.287294080258605</v>
+        <v>0.29121030566759</v>
       </c>
     </row>
     <row r="6">
@@ -614,40 +614,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.305416076707929</v>
+        <v>0.303499470421044</v>
       </c>
       <c r="C6" t="n">
-        <v>0.292889533655045</v>
+        <v>0.296491445079924</v>
       </c>
       <c r="D6" t="n">
-        <v>0.31722423712696</v>
+        <v>0.311478460302823</v>
       </c>
       <c r="E6" t="n">
-        <v>0.253646457929071</v>
+        <v>0.265996053285836</v>
       </c>
       <c r="F6" t="n">
-        <v>0.308100604976968</v>
+        <v>0.308581785168887</v>
       </c>
       <c r="G6" t="n">
-        <v>0.296961457967713</v>
+        <v>0.304965801354177</v>
       </c>
       <c r="H6" t="n">
-        <v>0.337614956893798</v>
+        <v>0.339592489270038</v>
       </c>
       <c r="I6" t="n">
-        <v>0.262208827908839</v>
+        <v>0.269077520244523</v>
       </c>
       <c r="J6" t="n">
-        <v>0.345738848861146</v>
+        <v>0.322771199282224</v>
       </c>
       <c r="K6" t="n">
-        <v>0.250832033475068</v>
+        <v>0.240617549797289</v>
       </c>
       <c r="L6" t="n">
-        <v>0.620317782876404</v>
+        <v>0.62071353644752</v>
       </c>
       <c r="M6" t="n">
-        <v>0.313486302704752</v>
+        <v>0.308350966037443</v>
       </c>
     </row>
     <row r="7">
@@ -655,40 +655,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224378297133374</v>
+        <v>0.224434691837766</v>
       </c>
       <c r="C7" t="n">
-        <v>0.223990549376561</v>
+        <v>0.22631694002463</v>
       </c>
       <c r="D7" t="n">
-        <v>0.250438043703413</v>
+        <v>0.251354999153847</v>
       </c>
       <c r="E7" t="n">
-        <v>0.208037739193942</v>
+        <v>0.217350858092065</v>
       </c>
       <c r="F7" t="n">
-        <v>0.214652686640197</v>
+        <v>0.215205443249671</v>
       </c>
       <c r="G7" t="n">
-        <v>0.31121386809334</v>
+        <v>0.296749045699371</v>
       </c>
       <c r="H7" t="n">
-        <v>0.220832262974053</v>
+        <v>0.226755365059523</v>
       </c>
       <c r="I7" t="n">
-        <v>0.182348018042198</v>
+        <v>0.186603259798346</v>
       </c>
       <c r="J7" t="n">
-        <v>0.190486731606771</v>
+        <v>0.187832491053925</v>
       </c>
       <c r="K7" t="n">
-        <v>0.18336862577363</v>
+        <v>0.183288952275228</v>
       </c>
       <c r="L7" t="n">
-        <v>0.463858331907562</v>
+        <v>0.465798523235741</v>
       </c>
       <c r="M7" t="n">
-        <v>0.219886612938875</v>
+        <v>0.217239408685415</v>
       </c>
     </row>
     <row r="8">
@@ -696,40 +696,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.185682952062025</v>
+        <v>0.184737819844385</v>
       </c>
       <c r="C8" t="n">
-        <v>0.178306549596314</v>
+        <v>0.180473814414045</v>
       </c>
       <c r="D8" t="n">
-        <v>0.202012002260522</v>
+        <v>0.207956863510915</v>
       </c>
       <c r="E8" t="n">
-        <v>0.141692775152179</v>
+        <v>0.142491298131063</v>
       </c>
       <c r="F8" t="n">
-        <v>0.181505789692763</v>
+        <v>0.182685278217219</v>
       </c>
       <c r="G8" t="n">
-        <v>0.226567405880753</v>
+        <v>0.215238639561532</v>
       </c>
       <c r="H8" t="n">
-        <v>0.202734356100725</v>
+        <v>0.21081976153687</v>
       </c>
       <c r="I8" t="n">
-        <v>0.15555783591152</v>
+        <v>0.162446661208835</v>
       </c>
       <c r="J8" t="n">
-        <v>0.153339440068281</v>
+        <v>0.138022583754635</v>
       </c>
       <c r="K8" t="n">
-        <v>0.144717616333433</v>
+        <v>0.141512024765048</v>
       </c>
       <c r="L8" t="n">
-        <v>0.502654886407258</v>
+        <v>0.502150371813961</v>
       </c>
       <c r="M8" t="n">
-        <v>0.182301345970429</v>
+        <v>0.178659531722179</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/transfer_how_positive.xlsx
+++ b/xlsx/country_comparison/transfer_how_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -63,10 +66,10 @@
     <t xml:space="preserve">Government, conditional on financing poverty reduction</t>
   </si>
   <si>
+    <t xml:space="preserve">Unconditional cash transfers to each household</t>
+  </si>
+  <si>
     <t xml:space="preserve">Local NGOs with democratic processes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unconditional cash transfers to each household</t>
   </si>
   <si>
     <t xml:space="preserve">Local authorities</t>
@@ -444,13 +447,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.458860962999883</v>
+        <v>0.485634151184732</v>
       </c>
       <c r="C2" t="n">
         <v>0.479230771350433</v>
@@ -480,18 +486,21 @@
         <v>0.360714365044952</v>
       </c>
       <c r="L2" t="n">
+        <v>0.649917765469901</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.730281008556318</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.450469509245025</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3952973377431</v>
+        <v>0.373046541592206</v>
       </c>
       <c r="C3" t="n">
         <v>0.421051763072799</v>
@@ -515,24 +524,27 @@
         <v>0.430096200341075</v>
       </c>
       <c r="J3" t="n">
-        <v>0.435665506975429</v>
+        <v>0.43566550697543</v>
       </c>
       <c r="K3" t="n">
         <v>0.357081562396814</v>
       </c>
       <c r="L3" t="n">
+        <v>0.236512887581577</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.565757188288464</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.365961692108797</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.372542591621191</v>
+        <v>0.366573147292612</v>
       </c>
       <c r="C4" t="n">
         <v>0.404670801216995</v>
@@ -562,100 +574,109 @@
         <v>0.268511778526444</v>
       </c>
       <c r="L4" t="n">
+        <v>0.329943894070992</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.622843204081969</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.354925915385496</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.307610619545865</v>
+        <v>0.33637647379765</v>
       </c>
       <c r="C5" t="n">
-        <v>0.334742283222798</v>
+        <v>0.296491445079924</v>
       </c>
       <c r="D5" t="n">
-        <v>0.388299827974413</v>
+        <v>0.311478460302823</v>
       </c>
       <c r="E5" t="n">
-        <v>0.331664531280709</v>
+        <v>0.265996053285836</v>
       </c>
       <c r="F5" t="n">
-        <v>0.337325131092242</v>
+        <v>0.308581785168887</v>
       </c>
       <c r="G5" t="n">
-        <v>0.33204520698653</v>
+        <v>0.304965801354177</v>
       </c>
       <c r="H5" t="n">
-        <v>0.328089348289805</v>
+        <v>0.339592489270038</v>
       </c>
       <c r="I5" t="n">
-        <v>0.290366066135486</v>
+        <v>0.269077520244523</v>
       </c>
       <c r="J5" t="n">
-        <v>0.324313472765042</v>
+        <v>0.322771199282224</v>
       </c>
       <c r="K5" t="n">
-        <v>0.22112426694156</v>
+        <v>0.240617549797289</v>
       </c>
       <c r="L5" t="n">
-        <v>0.530104176744778</v>
+        <v>0.538113857641652</v>
       </c>
       <c r="M5" t="n">
-        <v>0.29121030566759</v>
+        <v>0.62071353644752</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.308350966037443</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.303499470421044</v>
+        <v>0.289282564129624</v>
       </c>
       <c r="C6" t="n">
-        <v>0.296491445079924</v>
+        <v>0.334742283222798</v>
       </c>
       <c r="D6" t="n">
-        <v>0.311478460302823</v>
+        <v>0.388299827974413</v>
       </c>
       <c r="E6" t="n">
-        <v>0.265996053285836</v>
+        <v>0.331664531280709</v>
       </c>
       <c r="F6" t="n">
-        <v>0.308581785168887</v>
+        <v>0.337325131092242</v>
       </c>
       <c r="G6" t="n">
-        <v>0.304965801354177</v>
+        <v>0.33204520698653</v>
       </c>
       <c r="H6" t="n">
-        <v>0.339592489270038</v>
+        <v>0.328089348289805</v>
       </c>
       <c r="I6" t="n">
-        <v>0.269077520244523</v>
+        <v>0.290366066135486</v>
       </c>
       <c r="J6" t="n">
-        <v>0.322771199282224</v>
+        <v>0.324313472765042</v>
       </c>
       <c r="K6" t="n">
-        <v>0.240617549797289</v>
+        <v>0.22112426694156</v>
       </c>
       <c r="L6" t="n">
-        <v>0.62071353644752</v>
+        <v>0.176819335402056</v>
       </c>
       <c r="M6" t="n">
-        <v>0.308350966037443</v>
+        <v>0.530104176744778</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.29121030566759</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224434691837766</v>
+        <v>0.22040380576617</v>
       </c>
       <c r="C7" t="n">
         <v>0.22631694002463</v>
@@ -673,7 +694,7 @@
         <v>0.296749045699371</v>
       </c>
       <c r="H7" t="n">
-        <v>0.226755365059523</v>
+        <v>0.226755365059524</v>
       </c>
       <c r="I7" t="n">
         <v>0.186603259798346</v>
@@ -685,18 +706,21 @@
         <v>0.183288952275228</v>
       </c>
       <c r="L7" t="n">
+        <v>0.195669787238324</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.465798523235741</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>0.217239408685415</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.184737819844385</v>
+        <v>0.185426247458311</v>
       </c>
       <c r="C8" t="n">
         <v>0.180473814414045</v>
@@ -726,9 +750,12 @@
         <v>0.141512024765048</v>
       </c>
       <c r="L8" t="n">
+        <v>0.189650524963424</v>
+      </c>
+      <c r="M8" t="n">
         <v>0.502150371813961</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>0.178659531722179</v>
       </c>
     </row>

--- a/xlsx/country_comparison/transfer_how_positive.xlsx
+++ b/xlsx/country_comparison/transfer_how_positive.xlsx
@@ -456,7 +456,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.485634151184732</v>
+        <v>0.485378203517801</v>
       </c>
       <c r="C2" t="n">
         <v>0.479230771350433</v>
@@ -477,22 +477,22 @@
         <v>0.544682771468787</v>
       </c>
       <c r="I2" t="n">
-        <v>0.437672734277872</v>
+        <v>0.437672734277873</v>
       </c>
       <c r="J2" t="n">
         <v>0.466377285299069</v>
       </c>
       <c r="K2" t="n">
-        <v>0.360714365044952</v>
+        <v>0.36062834418311</v>
       </c>
       <c r="L2" t="n">
-        <v>0.649917765469901</v>
+        <v>0.647351101749226</v>
       </c>
       <c r="M2" t="n">
         <v>0.730281008556318</v>
       </c>
       <c r="N2" t="n">
-        <v>0.450469509245025</v>
+        <v>0.450957959509906</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.373046541592206</v>
+        <v>0.372303915214208</v>
       </c>
       <c r="C3" t="n">
         <v>0.421051763072799</v>
@@ -524,19 +524,19 @@
         <v>0.430096200341075</v>
       </c>
       <c r="J3" t="n">
-        <v>0.43566550697543</v>
+        <v>0.435665506975429</v>
       </c>
       <c r="K3" t="n">
-        <v>0.357081562396814</v>
+        <v>0.357209918266145</v>
       </c>
       <c r="L3" t="n">
-        <v>0.236512887581577</v>
+        <v>0.230868411160313</v>
       </c>
       <c r="M3" t="n">
         <v>0.565757188288464</v>
       </c>
       <c r="N3" t="n">
-        <v>0.365961692108797</v>
+        <v>0.366083392221669</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.366573147292612</v>
+        <v>0.368431562488216</v>
       </c>
       <c r="C4" t="n">
         <v>0.404670801216995</v>
@@ -571,16 +571,16 @@
         <v>0.351266706374992</v>
       </c>
       <c r="K4" t="n">
-        <v>0.268511778526444</v>
+        <v>0.268475855361453</v>
       </c>
       <c r="L4" t="n">
-        <v>0.329943894070992</v>
+        <v>0.34323165564695</v>
       </c>
       <c r="M4" t="n">
         <v>0.622843204081969</v>
       </c>
       <c r="N4" t="n">
-        <v>0.354925915385496</v>
+        <v>0.354982855614853</v>
       </c>
     </row>
     <row r="5">
@@ -588,7 +588,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.33637647379765</v>
+        <v>0.336207928322194</v>
       </c>
       <c r="C5" t="n">
         <v>0.296491445079924</v>
@@ -615,16 +615,16 @@
         <v>0.322771199282224</v>
       </c>
       <c r="K5" t="n">
-        <v>0.240617549797289</v>
+        <v>0.240441928542887</v>
       </c>
       <c r="L5" t="n">
-        <v>0.538113857641652</v>
+        <v>0.536926339855414</v>
       </c>
       <c r="M5" t="n">
         <v>0.62071353644752</v>
       </c>
       <c r="N5" t="n">
-        <v>0.308350966037443</v>
+        <v>0.308524690287428</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +632,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.289282564129624</v>
+        <v>0.28887016021309</v>
       </c>
       <c r="C6" t="n">
         <v>0.334742283222798</v>
@@ -659,16 +659,16 @@
         <v>0.324313472765042</v>
       </c>
       <c r="K6" t="n">
-        <v>0.22112426694156</v>
+        <v>0.221115870507474</v>
       </c>
       <c r="L6" t="n">
-        <v>0.176819335402056</v>
+        <v>0.17381964262529</v>
       </c>
       <c r="M6" t="n">
         <v>0.530104176744778</v>
       </c>
       <c r="N6" t="n">
-        <v>0.29121030566759</v>
+        <v>0.291228468936834</v>
       </c>
     </row>
     <row r="7">
@@ -676,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.22040380576617</v>
+        <v>0.220446803986899</v>
       </c>
       <c r="C7" t="n">
         <v>0.22631694002463</v>
@@ -703,16 +703,16 @@
         <v>0.187832491053925</v>
       </c>
       <c r="K7" t="n">
-        <v>0.183288952275228</v>
+        <v>0.183257456612112</v>
       </c>
       <c r="L7" t="n">
-        <v>0.195669787238324</v>
+        <v>0.19554617999603</v>
       </c>
       <c r="M7" t="n">
         <v>0.465798523235741</v>
       </c>
       <c r="N7" t="n">
-        <v>0.217239408685415</v>
+        <v>0.217448055217537</v>
       </c>
     </row>
     <row r="8">
@@ -720,7 +720,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.185426247458311</v>
+        <v>0.184742937735908</v>
       </c>
       <c r="C8" t="n">
         <v>0.180473814414045</v>
@@ -747,16 +747,16 @@
         <v>0.138022583754635</v>
       </c>
       <c r="K8" t="n">
-        <v>0.141512024765048</v>
+        <v>0.141433314757512</v>
       </c>
       <c r="L8" t="n">
-        <v>0.189650524963424</v>
+        <v>0.185034790211497</v>
       </c>
       <c r="M8" t="n">
         <v>0.502150371813961</v>
       </c>
       <c r="N8" t="n">
-        <v>0.178659531722179</v>
+        <v>0.178603799379371</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/transfer_how_positive.xlsx
+++ b/xlsx/country_comparison/transfer_how_positive.xlsx
@@ -456,7 +456,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.485378203517801</v>
+        <v>0.485681535932197</v>
       </c>
       <c r="C2" t="n">
         <v>0.479230771350433</v>
@@ -477,7 +477,7 @@
         <v>0.544682771468787</v>
       </c>
       <c r="I2" t="n">
-        <v>0.437672734277873</v>
+        <v>0.437672734277872</v>
       </c>
       <c r="J2" t="n">
         <v>0.466377285299069</v>
@@ -486,7 +486,7 @@
         <v>0.36062834418311</v>
       </c>
       <c r="L2" t="n">
-        <v>0.647351101749226</v>
+        <v>0.649518555205283</v>
       </c>
       <c r="M2" t="n">
         <v>0.730281008556318</v>
@@ -500,7 +500,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.372303915214208</v>
+        <v>0.37241662857945</v>
       </c>
       <c r="C3" t="n">
         <v>0.421051763072799</v>
@@ -530,7 +530,7 @@
         <v>0.357209918266145</v>
       </c>
       <c r="L3" t="n">
-        <v>0.230868411160313</v>
+        <v>0.231673801423414</v>
       </c>
       <c r="M3" t="n">
         <v>0.565757188288464</v>
@@ -544,7 +544,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.368431562488216</v>
+        <v>0.368545417044046</v>
       </c>
       <c r="C4" t="n">
         <v>0.404670801216995</v>
@@ -574,13 +574,13 @@
         <v>0.268475855361453</v>
       </c>
       <c r="L4" t="n">
-        <v>0.34323165564695</v>
+        <v>0.34404520025613</v>
       </c>
       <c r="M4" t="n">
         <v>0.622843204081969</v>
       </c>
       <c r="N4" t="n">
-        <v>0.354982855614853</v>
+        <v>0.354982855614852</v>
       </c>
     </row>
     <row r="5">
@@ -588,7 +588,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.336207928322194</v>
+        <v>0.336641105742154</v>
       </c>
       <c r="C5" t="n">
         <v>0.296491445079924</v>
@@ -618,7 +618,7 @@
         <v>0.240441928542887</v>
       </c>
       <c r="L5" t="n">
-        <v>0.536926339855414</v>
+        <v>0.540021597241107</v>
       </c>
       <c r="M5" t="n">
         <v>0.62071353644752</v>
@@ -632,7 +632,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.28887016021309</v>
+        <v>0.288780216611127</v>
       </c>
       <c r="C6" t="n">
         <v>0.334742283222798</v>
@@ -662,7 +662,7 @@
         <v>0.221115870507474</v>
       </c>
       <c r="L6" t="n">
-        <v>0.17381964262529</v>
+        <v>0.173176953081833</v>
       </c>
       <c r="M6" t="n">
         <v>0.530104176744778</v>
@@ -676,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220446803986899</v>
+        <v>0.220172041671487</v>
       </c>
       <c r="C7" t="n">
         <v>0.22631694002463</v>
@@ -706,7 +706,7 @@
         <v>0.183257456612112</v>
       </c>
       <c r="L7" t="n">
-        <v>0.19554617999603</v>
+        <v>0.193582873399466</v>
       </c>
       <c r="M7" t="n">
         <v>0.465798523235741</v>
@@ -720,7 +720,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.184742937735908</v>
+        <v>0.184650274154286</v>
       </c>
       <c r="C8" t="n">
         <v>0.180473814414045</v>
@@ -750,7 +750,7 @@
         <v>0.141433314757512</v>
       </c>
       <c r="L8" t="n">
-        <v>0.185034790211497</v>
+        <v>0.184372665127909</v>
       </c>
       <c r="M8" t="n">
         <v>0.502150371813961</v>
